--- a/weighted_data_experiment.xlsx
+++ b/weighted_data_experiment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>#Rules</t>
   </si>
@@ -61,6 +61,45 @@
   <si>
     <t>%Accuracy (Ignore Extrapolation)</t>
   </si>
+  <si>
+    <t>Actual Results:</t>
+  </si>
+  <si>
+    <t>Weight goes from 1/N to 2.5</t>
+  </si>
+  <si>
+    <t>%Accuracy (With Extrap)</t>
+  </si>
+  <si>
+    <t>%Accuracy (No Extrap)</t>
+  </si>
+  <si>
+    <t>NoWeight,MS=2.5%</t>
+  </si>
+  <si>
+    <t>NoWeight,MS=5%</t>
+  </si>
+  <si>
+    <t>IndexWeight,MS=2.5%</t>
+  </si>
+  <si>
+    <t>IndexWeight,MS=5%</t>
+  </si>
+  <si>
+    <t>YearWeight,MS=2.5%</t>
+  </si>
+  <si>
+    <t>YearWeight,MS=5%</t>
+  </si>
+  <si>
+    <t>NoWeight,MS=3.75%</t>
+  </si>
+  <si>
+    <t>IndexWeight,MS=3.75%</t>
+  </si>
+  <si>
+    <t>YearWeight,MS=3.75%</t>
+  </si>
 </sst>
 </file>
 
@@ -95,10 +134,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -115,6 +157,2207 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Rules</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> and Patterns Generated</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#Rules</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>NoWeight-MS=20</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> NoWeight-MS=30</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> NoWeight-MS=40</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v> IndexWeight-MS=20</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v> IndexWeight-MS=30</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v> IndexWeight-MS=40</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v> YearWeight-MS=20</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v> YearWeight-MS=30</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v> YearWeight-MS=40</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#Patterns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>NoWeight-MS=20</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> NoWeight-MS=30</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> NoWeight-MS=40</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v> IndexWeight-MS=20</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v> IndexWeight-MS=30</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v> IndexWeight-MS=40</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v> YearWeight-MS=20</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v> YearWeight-MS=30</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v> YearWeight-MS=40</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1413267456"/>
+        <c:axId val="1413254944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1413267456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1413254944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1413254944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1413267456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>%Accuracy (Ignores Extrapolation)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%Accuracy (Ignore Extrapolation)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>NoWeight-MS=20</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> NoWeight-MS=30</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> NoWeight-MS=40</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v> IndexWeight-MS=20</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v> IndexWeight-MS=30</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v> IndexWeight-MS=40</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v> YearWeight-MS=20</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v> YearWeight-MS=30</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v> YearWeight-MS=40</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>73.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1413253856"/>
+        <c:axId val="1413263104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1413253856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1413263104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1413263104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Hit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1413253856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,10 +2623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +2652,7 @@
         <v>72.760000000000005</v>
       </c>
       <c r="D1">
-        <v>72.33</v>
+        <v>71.84</v>
       </c>
       <c r="E1">
         <v>69.36</v>
@@ -441,7 +2684,7 @@
         <v>549</v>
       </c>
       <c r="D2">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>1994</v>
@@ -473,7 +2716,7 @@
         <v>489</v>
       </c>
       <c r="D3">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="E3">
         <v>1340</v>
@@ -523,8 +2766,212 @@
         <v>10</v>
       </c>
     </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>69.75</v>
+      </c>
+      <c r="C53">
+        <v>68.14</v>
+      </c>
+      <c r="D53">
+        <v>57.25</v>
+      </c>
+      <c r="E53">
+        <v>72.58</v>
+      </c>
+      <c r="F53">
+        <v>71.38</v>
+      </c>
+      <c r="G53">
+        <v>67.33</v>
+      </c>
+      <c r="H53">
+        <v>72.58</v>
+      </c>
+      <c r="I53">
+        <v>67.37</v>
+      </c>
+      <c r="J53">
+        <v>65.319999999999993</v>
+      </c>
+      <c r="P53">
+        <v>22.17</v>
+      </c>
+      <c r="Q53">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="R53">
+        <v>44.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>72.989999999999995</v>
+      </c>
+      <c r="C54">
+        <v>74.77</v>
+      </c>
+      <c r="D54">
+        <v>67.61</v>
+      </c>
+      <c r="E54">
+        <v>75</v>
+      </c>
+      <c r="F54">
+        <v>74.680000000000007</v>
+      </c>
+      <c r="G54">
+        <v>75.22</v>
+      </c>
+      <c r="H54">
+        <v>75</v>
+      </c>
+      <c r="I54">
+        <v>71.06</v>
+      </c>
+      <c r="J54">
+        <v>71.680000000000007</v>
+      </c>
+      <c r="P54">
+        <v>63.95</v>
+      </c>
+      <c r="Q54">
+        <v>64.489999999999995</v>
+      </c>
+      <c r="R54">
+        <v>64.53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>3718</v>
+      </c>
+      <c r="C55">
+        <v>635</v>
+      </c>
+      <c r="D55">
+        <v>160</v>
+      </c>
+      <c r="E55">
+        <v>14228</v>
+      </c>
+      <c r="F55">
+        <v>3052</v>
+      </c>
+      <c r="G55">
+        <v>466</v>
+      </c>
+      <c r="H55">
+        <v>25797</v>
+      </c>
+      <c r="I55">
+        <v>2075</v>
+      </c>
+      <c r="J55">
+        <v>769</v>
+      </c>
+      <c r="P55">
+        <v>18</v>
+      </c>
+      <c r="Q55">
+        <v>46</v>
+      </c>
+      <c r="R55">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>2360</v>
+      </c>
+      <c r="C56">
+        <v>544</v>
+      </c>
+      <c r="D56">
+        <v>214</v>
+      </c>
+      <c r="E56">
+        <v>7112</v>
+      </c>
+      <c r="F56">
+        <v>1832</v>
+      </c>
+      <c r="G56">
+        <v>429</v>
+      </c>
+      <c r="H56">
+        <v>11899</v>
+      </c>
+      <c r="I56">
+        <v>1284</v>
+      </c>
+      <c r="J56">
+        <v>619</v>
+      </c>
+      <c r="P56">
+        <v>69</v>
+      </c>
+      <c r="Q56">
+        <v>107</v>
+      </c>
+      <c r="R56">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>